--- a/SUPP_TABLES.xlsx
+++ b/SUPP_TABLES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/736a3d6d9c97bf5e/PROYECTO_ART_REYES_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{4B73F160-4FF8-4233-B9F4-4BCC774FFE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8178A958-D40F-4CAD-8606-D9140DDD34EF}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{4B73F160-4FF8-4233-B9F4-4BCC774FFE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57160642-B2F5-4253-B85B-7564FB5F4750}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F408F31B-A7B9-4506-BF4A-81D6412303C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F408F31B-A7B9-4506-BF4A-81D6412303C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTIVE" sheetId="3" r:id="rId1"/>
@@ -1998,7 +1998,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,45 +2045,321 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5C5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4D4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6464"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7B7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7676"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77D5F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7878"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6E6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6C6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6161"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5A5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5757"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4848"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1212"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2C2C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3636"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7373"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42C4F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5555"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4A4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4545"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3E3E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3B3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5F5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2929"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1D1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0B0B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1717"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2424"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1010"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2E2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1A1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0808"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3131"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5252"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2329,176 +2605,392 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2825,1274 +3317,1275 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="31" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="13">
         <v>14</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="14">
         <v>15.82</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="15">
         <v>14.33</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="14">
         <v>13.71</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="15">
         <v>18.670000000000002</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="15">
         <v>-15.37</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="13">
         <v>21</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="14">
         <v>18.48</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="15">
         <v>18.649999999999999</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="14">
         <v>14.54</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="15">
         <v>32.89</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="15">
         <v>-27.07</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="13">
         <v>28</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="14">
         <v>14.65</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="15">
         <v>17.12</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="14">
         <v>20.32</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="15">
         <v>22.33</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="15">
         <v>27.9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="28">
+      <c r="A7" s="29"/>
+      <c r="B7" s="16">
         <v>35</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="17">
         <v>15.64</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="18">
         <v>20.82</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="17">
         <v>18.34</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="18">
         <v>30.18</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="18">
         <v>14.71</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="13">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="14">
         <v>1.2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="15">
         <v>30.86</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="15">
         <v>29.45</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="15">
         <v>-7.4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="13">
         <v>21</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="14">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="15">
         <v>32.76</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="15">
         <v>28.57</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="15">
         <v>-2.44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13">
         <v>28</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="14">
         <v>1.27</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="15">
         <v>40.340000000000003</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="14">
         <v>1.37</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="15">
         <v>36.729999999999997</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="15">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28">
+      <c r="A11" s="29"/>
+      <c r="B11" s="16">
         <v>35</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="17">
         <v>1.24</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="18">
         <v>32.799999999999997</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="17">
         <v>1.33</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="18">
         <v>32.700000000000003</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="18">
         <v>6.56</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="13">
         <v>14</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="14">
         <v>4.04</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="15">
         <v>36.83</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="14">
         <v>3.41</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="15">
         <v>36.53</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="15">
         <v>-18.29</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="13">
         <v>21</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="14">
         <v>3.66</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="15">
         <v>40.74</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="14">
         <v>3.39</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="15">
         <v>52.4</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="15">
         <v>-8.1300000000000008</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="13">
         <v>28</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="14">
         <v>6.95</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="15">
         <v>30.99</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="14">
         <v>3.62</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="15">
         <v>48.68</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="15">
         <v>-91.94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28">
+      <c r="A15" s="29"/>
+      <c r="B15" s="16">
         <v>35</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="17">
         <v>7.29</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="18">
         <v>32.97</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="17">
         <v>3.41</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="18">
         <v>39.47</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="18">
         <v>-113.4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="13">
         <v>14</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="14">
         <v>37.65</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="15">
         <v>51.9</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="14">
         <v>25.81</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="15">
         <v>50.41</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="15">
         <v>-45.87</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="13">
         <v>21</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="14">
         <v>57.95</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="15">
         <v>47.76</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="14">
         <v>39.97</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="15">
         <v>63.8</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="15">
         <v>-44.98</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="13">
         <v>28</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="14">
         <v>80.52</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="15">
         <v>39.17</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="14">
         <v>47.81</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="15">
         <v>49.29</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="15">
         <v>-68.41</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="28">
+      <c r="A19" s="29"/>
+      <c r="B19" s="16">
         <v>35</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="17">
         <v>83.04</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="18">
         <v>46.89</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="17">
         <v>46.8</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="18">
         <v>58.41</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="18">
         <v>-77.430000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="13">
         <v>14</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="14">
         <v>3.12</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="15">
         <v>56.86</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="14">
         <v>3.62</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="15">
         <v>41.33</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="15">
         <v>13.79</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="13">
         <v>21</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="14">
         <v>4.37</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="15">
         <v>22.16</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="14">
         <v>4.43</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="15">
         <v>22.37</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="15">
         <v>1.35</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="13">
         <v>28</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="14">
         <v>3</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="15">
         <v>55.6</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="14">
         <v>4.87</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="15">
         <v>47.75</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="15">
         <v>38.46</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="28">
+      <c r="A23" s="29"/>
+      <c r="B23" s="16">
         <v>35</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="17">
         <v>3.12</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="18">
         <v>63.52</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="17">
         <v>5.41</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="18">
         <v>27.17</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="18">
         <v>42.31</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="13">
         <v>14</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="14">
         <v>3.34</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="15">
         <v>111.04</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="14">
         <v>3.87</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="15">
         <v>108.74</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="15">
         <v>13.65</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="13">
         <v>21</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="14">
         <v>26.79</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="15">
         <v>54.3</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="14">
         <v>14.42</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="15">
         <v>69.900000000000006</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="15">
         <v>-85.78</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="25">
+      <c r="A26" s="28"/>
+      <c r="B26" s="13">
         <v>28</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="14">
         <v>14.57</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="15">
         <v>87.15</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="14">
         <v>6.41</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="15">
         <v>82.49</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="15">
         <v>-127.3</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="28">
+      <c r="A27" s="29"/>
+      <c r="B27" s="16">
         <v>35</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="17">
         <v>10.6</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="18">
         <v>89.8</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="17">
         <v>7.85</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="18">
         <v>98.7</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="18">
         <v>-35.03</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="13">
         <v>14</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="14">
         <v>11.78</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="15">
         <v>29.57</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="14">
         <v>14.04</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="15">
         <v>21.3</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="15">
         <v>16.079999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="13">
         <v>21</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="14">
         <v>21.47</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="15">
         <v>18.079999999999998</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="14">
         <v>21.57</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="15">
         <v>19.18</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="15">
         <v>0.45</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="13">
         <v>28</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="14">
         <v>27.26</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="15">
         <v>19.59</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="14">
         <v>27.09</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="15">
         <v>23.12</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="15">
         <v>-0.62</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="32"/>
-      <c r="B31" s="28">
+      <c r="A31" s="29"/>
+      <c r="B31" s="16">
         <v>35</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="17">
         <v>32.6</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="18">
         <v>18.22</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="17">
         <v>26.97</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="18">
         <v>23.28</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="18">
         <v>-20.87</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="13">
         <v>14</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="15">
         <v>32.42</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="15">
         <v>25.72</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="15">
         <v>2.37</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="13">
         <v>21</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="14">
         <v>1.06</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="15">
         <v>33.049999999999997</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="14">
         <v>1.06</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H33" s="15">
         <v>30.11</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="15">
         <v>0.53</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="13">
         <v>28</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="14">
         <v>1.19</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="15">
         <v>38.450000000000003</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="14">
         <v>1.26</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="15">
         <v>29.93</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="15">
         <v>5.71</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32"/>
-      <c r="B35" s="28">
+      <c r="A35" s="29"/>
+      <c r="B35" s="16">
         <v>35</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="17">
         <v>1.28</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="18">
         <v>32.4</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="17">
         <v>1.06</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="18">
         <v>40.200000000000003</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="18">
         <v>-20.88</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="13">
         <v>14</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="14">
         <v>0.4</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="15">
         <v>36.47</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="14">
         <v>0.38</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="15">
         <v>30.99</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="15">
         <v>-5.82</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="13">
         <v>21</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="14">
         <v>0.81</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="15">
         <v>44.26</v>
       </c>
-      <c r="F37" s="26" t="s">
+      <c r="F37" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="14">
         <v>0.7</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="15">
         <v>38.270000000000003</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I37" s="15">
         <v>-15.9</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="13">
         <v>28</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="14">
         <v>0.83</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="15">
         <v>45.73</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="F38" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="14">
         <v>0.72</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="15">
         <v>39.85</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="15">
         <v>-14.95</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32"/>
-      <c r="B39" s="28">
+      <c r="A39" s="29"/>
+      <c r="B39" s="16">
         <v>35</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="17">
         <v>0.98</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="18">
         <v>44.25</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="17">
         <v>0.76</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="18">
         <v>44.91</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="18">
         <v>-28.59</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="13">
         <v>14</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="14">
         <v>0.06</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="15">
         <v>32.31</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="14">
         <v>0.05</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="15">
         <v>40.340000000000003</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="15">
         <v>-5.72</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="13">
         <v>21</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D41" s="14">
         <v>0.11</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="15">
         <v>34.78</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="14">
         <v>0.09</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="15">
         <v>29.65</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="15">
         <v>-21.33</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="13">
         <v>28</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="14">
         <v>0.1</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="15">
         <v>30.6</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="15">
         <v>41.87</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="15">
         <v>-41.21</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32"/>
-      <c r="B43" s="28">
+      <c r="A43" s="29"/>
+      <c r="B43" s="16">
         <v>35</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="17">
         <v>0.13</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="18">
         <v>32.22</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="17">
         <v>0.09</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="18">
         <v>37.65</v>
       </c>
-      <c r="I43" s="30">
+      <c r="I43" s="18">
         <v>-37.71</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="13">
         <v>14</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="14">
         <v>0.05</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="15">
         <v>39.880000000000003</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="14">
         <v>0.04</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="15">
         <v>38.020000000000003</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="15">
         <v>-15.24</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="13">
         <v>21</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D45" s="14">
         <v>0.08</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="15">
         <v>41.68</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G45" s="14">
         <v>0.06</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="15">
         <v>36.1</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="15">
         <v>51.4</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="13">
         <v>28</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="15">
         <v>41.87</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F46" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="14">
         <v>0.7</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H46" s="15">
         <v>27.39</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="15">
         <v>89.3</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="28">
+      <c r="A47" s="29"/>
+      <c r="B47" s="16">
         <v>35</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="17">
         <v>0.11</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="18">
         <v>48.77</v>
       </c>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="18">
         <v>43.89</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="18">
         <v>-49.16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
@@ -4103,12 +4596,11 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4118,1413 +4610,1413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08C46C6-DA81-446D-8687-4B71DD2D95E0}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="46"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="33" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="52"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="21">
         <v>14</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="22">
         <v>0.08</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="22">
         <v>0.75</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="21">
         <v>0.16</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="21">
         <v>0.72</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="22">
         <v>0.16</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="22">
         <v>0.62</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="21">
         <v>0.2</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="21">
         <v>0.91</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="40">
+      <c r="A5" s="39"/>
+      <c r="B5" s="21">
         <v>21</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="21">
         <v>0.12</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="21">
         <v>0.93</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="22">
         <v>0.12</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="22">
         <v>0.7</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="21">
         <v>0.16</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="40">
+      <c r="A6" s="39"/>
+      <c r="B6" s="21">
         <v>28</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="22">
         <v>0.16</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="22">
         <v>0.7</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="21">
         <v>0.12</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="21">
         <v>0.8</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="22">
         <v>0.25</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="22">
         <v>0.66</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="21">
         <v>0.08</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="21">
         <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42">
+      <c r="A7" s="40"/>
+      <c r="B7" s="23">
         <v>35</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="24">
         <v>0.12</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="24">
         <v>0.79</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="23">
         <v>0.08</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="23">
         <v>0.65</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="24">
         <v>0.16</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="24">
         <v>0.62</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="23">
         <v>0.2</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="23">
         <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="21">
         <v>14</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="22">
         <v>0.08</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="22">
         <v>0.7</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="21">
         <v>0.2</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="21">
         <v>0.77</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="22">
         <v>0.04</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="22">
         <v>0.7</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="21">
         <v>0.25</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="21">
         <v>0.72</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="40">
+      <c r="A9" s="39"/>
+      <c r="B9" s="21">
         <v>21</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="22">
         <v>0.08</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="22">
         <v>0.79</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="21">
         <v>0.12</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="21">
         <v>0.65</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="22">
         <v>0.12</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="22">
         <v>0.75</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="21">
         <v>0.12</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="21">
         <v>0.73</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="40">
+      <c r="A10" s="39"/>
+      <c r="B10" s="21">
         <v>28</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="22">
         <v>0.08</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="22">
         <v>0.7</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="21">
         <v>0.2</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="21">
         <v>0.77</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="22">
         <v>0.08</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="22">
         <v>0.7</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="21">
         <v>0.2</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="21">
         <v>0.77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42">
+      <c r="A11" s="40"/>
+      <c r="B11" s="23">
         <v>35</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="24">
         <v>0.08</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="24">
         <v>0.75</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="23">
         <v>0.16</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="23">
         <v>0.72</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="24">
         <v>0.16</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="24">
         <v>0.54</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="23">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="23">
         <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="21">
         <v>14</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="22">
         <v>0.12</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="22">
         <v>0.75</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="21">
         <v>0.12</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="21">
         <v>0.73</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="22">
         <v>0.2</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="22">
         <v>0.54</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="21">
         <v>0.25</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="40">
+      <c r="A13" s="39"/>
+      <c r="B13" s="21">
         <v>21</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="22">
         <v>0.2</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="22">
         <v>0.66</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="21">
         <v>0.12</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="21">
         <v>0.85</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="22">
         <v>0.16</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="22">
         <v>0.7</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="21">
         <v>0.12</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="40">
+      <c r="A14" s="39"/>
+      <c r="B14" s="21">
         <v>28</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="22">
         <v>0.16</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="22">
         <v>0.79</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="21">
         <v>0.04</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="21">
         <v>0.61</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="22">
         <v>0.12</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="22">
         <v>0.7</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="21">
         <v>0.16</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42">
+      <c r="A15" s="40"/>
+      <c r="B15" s="23">
         <v>35</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="24">
         <v>0.08</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="24">
         <v>0.75</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="23">
         <v>0.16</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="23">
         <v>0.72</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="24">
         <v>0.33</v>
       </c>
-      <c r="H15" s="43">
+      <c r="H15" s="24">
         <v>0.41</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="23">
         <v>0.25</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="23">
         <v>1.07</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="21">
         <v>14</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="22">
         <v>0.2</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="21">
         <v>0.2</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="21">
         <v>0.96</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="22">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="21">
         <v>0.12</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="21">
         <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="40">
+      <c r="A17" s="39"/>
+      <c r="B17" s="21">
         <v>21</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="22">
         <v>0.08</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="22">
         <v>0.75</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="21">
         <v>0.16</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="21">
         <v>0.72</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="22">
         <v>0.12</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="22">
         <v>0.75</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="21">
         <v>0.12</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="21">
         <v>0.73</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="40">
+      <c r="A18" s="39"/>
+      <c r="B18" s="21">
         <v>28</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="22">
         <v>0.16</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="22">
         <v>0.66</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="21">
         <v>0.16</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="21">
         <v>0.86</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="22">
         <v>0.12</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="22">
         <v>0.75</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="21">
         <v>0.12</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="21">
         <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42">
+      <c r="A19" s="40"/>
+      <c r="B19" s="23">
         <v>35</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="24">
         <v>0.08</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="24">
         <v>0.83</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="23">
         <v>0.08</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="24">
         <v>0.08</v>
       </c>
-      <c r="H19" s="43">
+      <c r="H19" s="24">
         <v>0.79</v>
       </c>
-      <c r="I19" s="42">
+      <c r="I19" s="23">
         <v>0.12</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="23">
         <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20" s="21">
         <v>14</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="22">
         <v>0.25</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="22">
         <v>0.62</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="21">
         <v>0.12</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="21">
         <v>0.9</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="22">
         <v>0.2</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="22">
         <v>0.75</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="21">
         <v>0.04</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="21">
         <v>0.67</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="40">
+      <c r="A21" s="39"/>
+      <c r="B21" s="21">
         <v>21</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="22">
         <v>0.12</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="22">
         <v>0.75</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="21">
         <v>0.12</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="21">
         <v>0.73</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="22">
         <v>0.2</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="22">
         <v>0.7</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="21">
         <v>0.08</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="21">
         <v>0.77</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="40">
+      <c r="A22" s="39"/>
+      <c r="B22" s="21">
         <v>28</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="22">
         <v>0.2</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="22">
         <v>0.66</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="21">
         <v>0.12</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="21">
         <v>0.85</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="22">
         <v>0.08</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="22">
         <v>0.7</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="21">
         <v>0.2</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="21">
         <v>0.77</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42">
+      <c r="A23" s="40"/>
+      <c r="B23" s="23">
         <v>35</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="24">
         <v>0.16</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="24">
         <v>0.75</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="23">
         <v>0.08</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="23">
         <v>0.72</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="24">
         <v>0.08</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="24">
         <v>0.66</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="23">
         <v>0.25</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="23">
         <v>0.82</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="21">
         <v>14</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="22">
         <v>0</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="22">
         <v>0.87</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="21">
         <v>0.12</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="21">
         <v>0.37</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="22">
         <v>0</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="22">
         <v>0.87</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="21">
         <v>0.12</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="21">
         <v>0.37</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="40">
+      <c r="A25" s="39"/>
+      <c r="B25" s="21">
         <v>21</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="22">
         <v>0.2</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="22">
         <v>0.62</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="21">
         <v>0.16</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="21">
         <v>0.91</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="22">
         <v>0.2</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="22">
         <v>0.62</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="21">
         <v>0.16</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="21">
         <v>0.91</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="40">
+      <c r="A26" s="39"/>
+      <c r="B26" s="21">
         <v>28</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="22">
         <v>0.2</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="22">
         <v>0.62</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="21">
         <v>0.16</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="21">
         <v>0.91</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="22">
         <v>0.16</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="22">
         <v>0.7</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="21">
         <v>0.12</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="42">
+      <c r="A27" s="40"/>
+      <c r="B27" s="23">
         <v>35</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="24">
         <v>0.12</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="24">
         <v>0.7</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="23">
         <v>0.16</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="23">
         <v>0.8</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="24">
         <v>0</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="24">
         <v>0.83</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="23">
         <v>0.16</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="23">
         <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="21">
         <v>14</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="22">
         <v>0.04</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="22">
         <v>0.79</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="21">
         <v>0.16</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="21">
         <v>0.61</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="22">
         <v>0.12</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="22">
         <v>0.66</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="21">
         <v>0.2</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="21">
         <v>0.85</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="40">
+      <c r="A29" s="39"/>
+      <c r="B29" s="21">
         <v>21</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="22">
         <v>0.2</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="22">
         <v>0.66</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="21">
         <v>0.12</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="21">
         <v>0.85</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="22">
         <v>0.12</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="22">
         <v>0.79</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="21">
         <v>0.08</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="21">
         <v>0.65</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="40">
+      <c r="A30" s="39"/>
+      <c r="B30" s="21">
         <v>28</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="22">
         <v>0.2</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="22">
         <v>0.66</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="21">
         <v>0.12</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="21">
         <v>0.85</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="22">
         <v>0.08</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="22">
         <v>0.75</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="21">
         <v>0.16</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="21">
         <v>0.72</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="42">
+      <c r="A31" s="40"/>
+      <c r="B31" s="23">
         <v>35</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="24">
         <v>0.16</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="24">
         <v>0.7</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="23">
         <v>0.12</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="23">
         <v>0.8</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="24">
         <v>0.08</v>
       </c>
-      <c r="H31" s="43">
+      <c r="H31" s="24">
         <v>0.79</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="23">
         <v>0.12</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="23">
         <v>0.65</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="40">
+      <c r="B32" s="21">
         <v>14</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="22">
         <v>0.16</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="22">
         <v>0.66</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="21">
         <v>0.16</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="21">
         <v>0.86</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="22">
         <v>0.12</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="22">
         <v>0.66</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="21">
         <v>0.2</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="21">
         <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="40">
+      <c r="A33" s="39"/>
+      <c r="B33" s="21">
         <v>21</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="22">
         <v>0.2</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="22">
         <v>0.62</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="21">
         <v>0.16</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="21">
         <v>0.91</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="22">
         <v>0.12</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="22">
         <v>0.75</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="21">
         <v>0.12</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="21">
         <v>0.73</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="40">
+      <c r="A34" s="39"/>
+      <c r="B34" s="21">
         <v>28</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="22">
         <v>0.08</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="22">
         <v>0.75</v>
       </c>
-      <c r="E34" s="40">
+      <c r="E34" s="21">
         <v>0.16</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="21">
         <v>0.72</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="22">
         <v>0.16</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="22">
         <v>0.62</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="21">
         <v>0.2</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="21">
         <v>0.91</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="42">
+      <c r="A35" s="40"/>
+      <c r="B35" s="23">
         <v>35</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="24">
         <v>0.12</v>
       </c>
-      <c r="D35" s="43">
+      <c r="D35" s="24">
         <v>0.66</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="23">
         <v>0.2</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="23">
         <v>0.85</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="24">
         <v>0.08</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="24">
         <v>0.75</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="23">
         <v>0.16</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="23">
         <v>0.72</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B36" s="21">
         <v>14</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="22">
         <v>0.2</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="22">
         <v>0.62</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="21">
         <v>0.16</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="21">
         <v>0.91</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="22">
         <v>0.12</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="22">
         <v>0.7</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="21">
         <v>0.16</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="21">
         <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="40">
+      <c r="A37" s="39"/>
+      <c r="B37" s="21">
         <v>21</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="22">
         <v>0.12</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="22">
         <v>0.66</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="21">
         <v>0.2</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="21">
         <v>0.85</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="22">
         <v>0.12</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="22">
         <v>0.75</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="21">
         <v>0.12</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="21">
         <v>0.73</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="40">
+      <c r="A38" s="39"/>
+      <c r="B38" s="21">
         <v>28</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="22">
         <v>0.08</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="22">
         <v>0.79</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="21">
         <v>0.12</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="21">
         <v>0.65</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="22">
         <v>0.12</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="22">
         <v>0.66</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="21">
         <v>0.2</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="21">
         <v>0.85</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="42">
+      <c r="A39" s="40"/>
+      <c r="B39" s="23">
         <v>35</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="24">
         <v>0.08</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="24">
         <v>0.79</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="23">
         <v>0.12</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="23">
         <v>0.65</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="24">
         <v>0.16</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="24">
         <v>0.66</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="23">
         <v>0.16</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="23">
         <v>0.86</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="21">
         <v>14</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="22">
         <v>0.16</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="22">
         <v>0.66</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="21">
         <v>0.16</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="21">
         <v>0.86</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="22">
         <v>0.04</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="22">
         <v>0.79</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="21">
         <v>0.16</v>
       </c>
-      <c r="J40" s="40">
+      <c r="J40" s="21">
         <v>0.61</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="40">
+      <c r="A41" s="39"/>
+      <c r="B41" s="21">
         <v>21</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="22">
         <v>0.16</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="22">
         <v>0.7</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="21">
         <v>0.12</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="21">
         <v>0.8</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="22">
         <v>0.12</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41" s="22">
         <v>0.75</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="21">
         <v>0.12</v>
       </c>
-      <c r="J41" s="40">
+      <c r="J41" s="21">
         <v>0.73</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="40">
+      <c r="A42" s="39"/>
+      <c r="B42" s="21">
         <v>28</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="22">
         <v>0.12</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="22">
         <v>0.7</v>
       </c>
-      <c r="E42" s="40">
+      <c r="E42" s="21">
         <v>0.16</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="21">
         <v>0.8</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="22">
         <v>0.16</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="22">
         <v>0.66</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="21">
         <v>0.16</v>
       </c>
-      <c r="J42" s="40">
+      <c r="J42" s="21">
         <v>0.86</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-      <c r="B43" s="42">
+      <c r="A43" s="40"/>
+      <c r="B43" s="23">
         <v>35</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="24">
         <v>0.16</v>
       </c>
-      <c r="D43" s="43">
+      <c r="D43" s="24">
         <v>0.62</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="23">
         <v>0.2</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="23">
         <v>0.91</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="24">
         <v>0.16</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="24">
         <v>0.7</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="23">
         <v>0.12</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="21">
         <v>14</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="22">
         <v>0.62</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E44" s="21">
         <v>0.08</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="21">
         <v>0.86</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="22">
         <v>0</v>
       </c>
-      <c r="H44" s="41">
+      <c r="H44" s="22">
         <v>0.87</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="21">
         <v>0.12</v>
       </c>
-      <c r="J44" s="40">
+      <c r="J44" s="21">
         <v>0.37</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="40">
+      <c r="A45" s="39"/>
+      <c r="B45" s="21">
         <v>21</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="22">
         <v>0.16</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="22">
         <v>0.66</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="21">
         <v>0.16</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="21">
         <v>0.86</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="22">
         <v>0.12</v>
       </c>
-      <c r="H45" s="41">
+      <c r="H45" s="22">
         <v>0.79</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="21">
         <v>0.08</v>
       </c>
-      <c r="J45" s="40">
+      <c r="J45" s="21">
         <v>0.65</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="40">
+      <c r="A46" s="39"/>
+      <c r="B46" s="21">
         <v>28</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="22">
         <v>0.16</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="22">
         <v>0.66</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="21">
         <v>0.16</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="21">
         <v>0.86</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="22">
         <v>0.12</v>
       </c>
-      <c r="H46" s="41">
+      <c r="H46" s="22">
         <v>0.66</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="21">
         <v>0.2</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="21">
         <v>0.85</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="42">
+      <c r="A47" s="40"/>
+      <c r="B47" s="23">
         <v>35</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="24">
         <v>0.08</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="24">
         <v>0.75</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="23">
         <v>0.16</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="23">
         <v>0.72</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="24">
         <v>0.2</v>
       </c>
-      <c r="H47" s="43">
+      <c r="H47" s="24">
         <v>0.62</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="23">
         <v>0.16</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="23">
         <v>0.91</v>
       </c>
     </row>
@@ -5535,18 +6027,18 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A47"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5554,1707 +6046,1731 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88FCE73-7DB3-4262-ABDA-4535339C57A2}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M45"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="51">
         <v>14</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="56">
         <v>-0.02</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="56">
         <v>0.22</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="56">
         <v>0.18</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="56">
         <v>-0.17</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="56">
         <v>-0.09</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="56">
         <v>-0.12</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="56">
         <v>-0.02</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="56">
         <v>-0.05</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+    <row r="3" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="108"/>
+      <c r="B3" s="3">
         <v>21</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="57"/>
+      <c r="D3" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="16">
         <v>0.36</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="16">
         <v>0.19</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="16">
         <v>0.22</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="16">
         <v>0.19</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="16">
         <v>0.17</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="16">
         <v>0.27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6">
+    <row r="4" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="108"/>
+      <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+      <c r="C4" s="57"/>
+      <c r="D4" s="16">
         <v>0.3</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="16">
         <v>0.01</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="16">
         <v>0.05</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="16">
         <v>0.01</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="16">
         <v>0.35</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="16">
         <v>0.18</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="16">
         <v>0.18</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="16">
         <v>-0.23</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="16">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
+    <row r="5" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="109"/>
+      <c r="B5" s="3">
         <v>35</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="16">
         <v>0.09</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="16">
         <v>-0.27</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="16">
         <v>-0.19</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="51">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="D6" s="65"/>
+      <c r="E6" s="16">
         <v>0.06</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="16">
         <v>0.17</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="16">
         <v>0.35</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="16">
         <v>0.35</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6">
+    <row r="7" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="108"/>
+      <c r="B7" s="3">
         <v>21</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="16">
         <v>-0.4</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
+      <c r="D7" s="65"/>
+      <c r="E7" s="16">
         <v>0.06</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="16">
         <v>0.16</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="16">
         <v>0.27</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="16">
         <v>0.24</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="108"/>
+      <c r="B8" s="3">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="16">
         <v>0.2</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="D8" s="65"/>
+      <c r="E8" s="16">
         <v>-0.31</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="16">
         <v>-0.11</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="16">
         <v>0.15</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="16">
         <v>0.15</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="16">
         <v>0.26</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="16">
         <v>0.13</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="16">
         <v>0.25</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="16">
         <v>0.34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
+    <row r="9" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109"/>
+      <c r="B9" s="52">
         <v>35</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="16">
         <v>-0.09</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7">
+      <c r="D9" s="65"/>
+      <c r="E9" s="16">
         <v>0.18</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="16">
         <v>0.37</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="16">
         <v>0.18</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="16">
         <v>0.13</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="51">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="16">
         <v>-0.04</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="16">
         <v>-0.25</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="65"/>
+      <c r="F10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="16">
         <v>0.27</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="16">
         <v>0.26</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="16">
         <v>0.13</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="16">
         <v>0.24</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="16">
         <v>0.22</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="16">
         <v>0.05</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="16">
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6">
+    <row r="11" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="108"/>
+      <c r="B11" s="3">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="16">
         <v>-0.16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="16">
         <v>0.03</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="16">
         <v>0.21</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="16">
         <v>0.39</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6">
+    <row r="12" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="108"/>
+      <c r="B12" s="3">
         <v>28</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="16">
         <v>0.26</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="16">
         <v>0.25</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="16">
         <v>-0.26</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="16">
         <v>-0.12</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6">
+    <row r="13" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="109"/>
+      <c r="B13" s="52">
         <v>35</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="16">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="16">
         <v>-0.09</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="16">
         <v>-0.33</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="16">
         <v>0.31</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="16">
         <v>0.2</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="16">
         <v>0.11</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="51">
         <v>14</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="65"/>
+      <c r="G14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="16">
         <v>0.33</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="16">
         <v>0.1</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="16">
         <v>0.12</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6">
+    <row r="15" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="108"/>
+      <c r="B15" s="3">
         <v>21</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="16">
         <v>0.31</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="16">
         <v>-0.18</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="F15" s="65"/>
+      <c r="G15" s="16">
         <v>0.35</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="16">
         <v>0.31</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="16">
         <v>0.4</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="81" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6">
+    <row r="16" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="108"/>
+      <c r="B16" s="3">
         <v>28</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="16">
         <v>0.37</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="16">
         <v>0.18</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="F16" s="65"/>
+      <c r="G16" s="16">
         <v>-0.18</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="16">
         <v>-0.19</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="16">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="16">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6">
+    <row r="17" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="109"/>
+      <c r="B17" s="52">
         <v>35</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="16">
         <v>0.13</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="16">
         <v>0.24</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="F17" s="65"/>
+      <c r="G17" s="16">
         <v>-0.13</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="16">
         <v>-0.03</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="16">
         <v>0.3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="16">
         <v>0.18</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="51">
         <v>14</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="16">
         <v>-0.35</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="16">
         <v>0.16</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="16">
         <v>0.15</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="16">
         <v>-0.1</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="16">
         <v>0.21</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="73" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6">
+    <row r="19" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="108"/>
+      <c r="B19" s="3">
         <v>21</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="16">
         <v>0.02</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="16">
         <v>-0.38</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="G19" s="65"/>
+      <c r="H19" s="16">
         <v>0.37</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="16">
         <v>0.18</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="16">
         <v>0.27</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="16">
         <v>0.37</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6">
+    <row r="20" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="108"/>
+      <c r="B20" s="3">
         <v>28</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="16">
         <v>-0.02</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="16">
         <v>0.31</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="16">
         <v>0.16</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="16">
         <v>0.02</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="16">
         <v>0.06</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="16">
         <v>0.16</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="16">
         <v>0.1</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="16">
         <v>0.34</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6">
+    <row r="21" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="109"/>
+      <c r="B21" s="52">
         <v>35</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="16">
         <v>0.17</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="16">
         <v>0.24</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="16">
         <v>0.06</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="16">
         <v>-0.06</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="16">
         <v>0.19</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="16">
         <v>0.2</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="16">
         <v>0.16</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="51">
         <v>14</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="16">
         <v>0.01</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="16">
         <v>-0.35</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="16">
         <v>0.13</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="16">
         <v>0.27</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
+      <c r="H22" s="65"/>
+      <c r="I22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="16">
         <v>0.38</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="67" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6">
+    <row r="23" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="108"/>
+      <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="16">
         <v>0.26</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="16">
         <v>0.31</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7" t="s">
+      <c r="G23" s="16">
+        <v>0.48</v>
+      </c>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="86" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6">
+    <row r="24" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="108"/>
+      <c r="B24" s="3">
         <v>28</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="16">
         <v>0.16</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="16">
         <v>0.26</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7">
+      <c r="H24" s="65"/>
+      <c r="I24" s="16">
         <v>-0.12</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="16">
         <v>-0.19</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="16">
         <v>-0.04</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="16">
         <v>0.26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6">
+    <row r="25" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="109"/>
+      <c r="B25" s="52">
         <v>35</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="16">
         <v>-0.12</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="16">
         <v>0.19</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7">
+      <c r="H25" s="65"/>
+      <c r="I25" s="16">
         <v>0.2</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="16">
         <v>0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="51">
         <v>14</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="16">
         <v>-0.32</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="16">
         <v>0.16</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="16">
         <v>0.01</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="16">
         <v>0.37</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="16">
         <v>0.18</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="65"/>
+      <c r="J26" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="16">
         <v>0.38</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="16">
         <v>0.34</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6">
+    <row r="27" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="108"/>
+      <c r="B27" s="3">
         <v>21</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="16">
         <v>0.24</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="16">
         <v>0.22</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="16">
         <v>0.33</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="16">
         <v>0.32</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
+      <c r="I27" s="65"/>
+      <c r="J27" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="85" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
+    <row r="28" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="108"/>
+      <c r="B28" s="3">
         <v>28</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="16">
         <v>0.13</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="16">
         <v>0.23</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="16">
         <v>0.36</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
+      <c r="I28" s="65"/>
+      <c r="J28" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="16">
         <v>-0.25</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="16">
         <v>-0.12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6">
+    <row r="29" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="109"/>
+      <c r="B29" s="52">
         <v>35</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="16">
         <v>0.26</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="16">
         <v>0.02</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="16">
         <v>0.18</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="16">
         <v>0.11</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
+      <c r="I29" s="65"/>
+      <c r="J29" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="91" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="51">
         <v>14</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="16">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="16">
         <v>0.31</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="16">
         <v>0.1</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7" t="s">
+      <c r="J30" s="65"/>
+      <c r="K30" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="87" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6">
+    <row r="31" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="108"/>
+      <c r="B31" s="3">
         <v>21</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="16">
         <v>-0.01</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="16">
         <v>0.15</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="16">
         <v>0.41</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="16">
         <v>0.32</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="16">
         <v>0.4</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7" t="s">
+      <c r="J31" s="65"/>
+      <c r="K31" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="96" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6">
+    <row r="32" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="108"/>
+      <c r="B32" s="3">
         <v>28</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="16">
         <v>0.15</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="16">
         <v>0.3</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7" t="s">
+      <c r="J32" s="65"/>
+      <c r="K32" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="16">
         <v>-0.17</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="16">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6">
+    <row r="33" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="109"/>
+      <c r="B33" s="52">
         <v>35</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="16">
         <v>0.39</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="16">
         <v>0.04</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="65"/>
+      <c r="K33" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="51">
         <v>14</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="16">
         <v>-0.1</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="16">
         <v>0.26</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="16">
         <v>0.2</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="16">
         <v>0.01</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="16">
         <v>0.4</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="16">
         <v>0.12</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7" t="s">
+      <c r="K34" s="65"/>
+      <c r="L34" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="102" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6">
+    <row r="35" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="108"/>
+      <c r="B35" s="3">
         <v>21</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="16">
         <v>0.4</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="16">
         <v>-0.04</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="16">
         <v>0.23</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="16">
         <v>0.4</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7" t="s">
+      <c r="K35" s="65"/>
+      <c r="L35" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="104" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6">
+    <row r="36" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="108"/>
+      <c r="B36" s="3">
         <v>28</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7">
+      <c r="K36" s="65"/>
+      <c r="L36" s="16">
         <v>-0.02</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="16">
         <v>0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6">
+    <row r="37" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="109"/>
+      <c r="B37" s="52">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="16">
         <v>0.33</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="16">
         <v>0.25</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7" t="s">
+      <c r="K37" s="65"/>
+      <c r="L37" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="95" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="51">
         <v>14</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="16">
         <v>0.37</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="16">
         <v>0.11</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="16">
         <v>-0.17</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="16">
         <v>0.19</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="s">
+      <c r="L38" s="65"/>
+      <c r="M38" s="78" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6">
+    <row r="39" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108"/>
+      <c r="B39" s="3">
         <v>21</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="16">
         <v>-0.03</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="16">
         <v>0.12</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="16">
         <v>0.33</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="16">
         <v>0.21</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7" t="s">
+      <c r="L39" s="65"/>
+      <c r="M39" s="96" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6">
+    <row r="40" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="108"/>
+      <c r="B40" s="3">
         <v>28</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="16">
         <v>0.26</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7" t="s">
+      <c r="L40" s="65"/>
+      <c r="M40" s="86" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6">
+    <row r="41" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="109"/>
+      <c r="B41" s="52">
         <v>35</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="16">
         <v>0.39</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="16">
         <v>0.2</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7" t="s">
+      <c r="L41" s="65"/>
+      <c r="M41" s="100" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="51">
         <v>14</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="16">
         <v>-0.22</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="16">
         <v>0.15</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="16">
         <v>-0.21</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="16">
         <v>0</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6">
+      <c r="M42" s="65"/>
+    </row>
+    <row r="43" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="108"/>
+      <c r="B43" s="3">
         <v>21</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="16">
         <v>0.34</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="16">
         <v>0</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="16">
         <v>0.33</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="M43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6">
+      <c r="M43" s="65"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="108"/>
+      <c r="B44" s="3">
         <v>28</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="16">
         <v>0.13</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="16">
         <v>0.21</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="16">
         <v>0.26</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="16">
         <v>0.25</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="16">
         <v>0.11</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="16">
         <v>0.17</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="16">
         <v>0.05</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="16">
         <v>0.4</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="65"/>
     </row>
     <row r="45" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8">
+      <c r="A45" s="109"/>
+      <c r="B45" s="52">
         <v>35</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="16">
         <v>0.36</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="16">
         <v>0.37</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="16">
         <v>0.39</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="M45" s="65"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A42:A45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7264,717 +7780,717 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E228F90-0BFD-4AD5-85DB-814A572EBB50}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>28</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>0.96</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>35</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>0.27</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>0.11799999999999999</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0.61</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>0.59399999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0.315</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>35</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0.26100000000000001</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>0.214</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>0.439</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1">
         <v>21</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1">
         <v>28</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>0.81399999999999995</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="1">
         <v>35</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>0.88</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>0.57599999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1">
         <v>21</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>0.114</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="1">
         <v>28</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>0.78700000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1">
         <v>35</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>0.95699999999999996</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>14</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>0.24299999999999999</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="1">
         <v>21</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="6">
         <v>0.26</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>0.124</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="1">
         <v>28</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1">
         <v>35</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>0.379</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>0.61199999999999999</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <v>0.63800000000000001</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>0.38100000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="1">
         <v>28</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>0.68</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="1">
         <v>35</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="6">
         <v>0.78900000000000003</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="1">
         <v>14</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="6">
         <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="1">
         <v>21</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="6">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="6">
         <v>0.64700000000000002</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="6">
         <v>0.91100000000000003</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="6">
         <v>0.27700000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="1">
         <v>35</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="6">
         <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1">
         <v>14</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="6">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="6">
         <v>0.76300000000000001</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="6">
         <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="1">
         <v>21</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="6">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="6">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1">
         <v>28</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="6">
         <v>0.19</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="6">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>0.77800000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1">
         <v>35</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="6">
         <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>14</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="6">
         <v>0.51</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="1">
         <v>21</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="6">
         <v>0.34</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="1">
         <v>28</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="6">
         <v>0.26</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="6">
         <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="1">
         <v>35</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="6">
         <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="1">
         <v>14</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="6">
         <v>0.59099999999999997</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="6">
         <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="1">
         <v>21</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="6">
         <v>0.16</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="1">
         <v>28</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="6">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="1">
         <v>35</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="6">
         <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1">
         <v>14</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="6">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="6">
         <v>0.123</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1">
         <v>21</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="6">
         <v>0.128</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="1">
         <v>28</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="6">
         <v>0.313</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="2">
         <v>35</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="8">
         <v>0.249</v>
       </c>
     </row>

--- a/SUPP_TABLES.xlsx
+++ b/SUPP_TABLES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/736a3d6d9c97bf5e/PROYECTO_ART_REYES_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{4B73F160-4FF8-4233-B9F4-4BCC774FFE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57160642-B2F5-4253-B85B-7564FB5F4750}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{4B73F160-4FF8-4233-B9F4-4BCC774FFE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E71D61-6666-40BA-998A-9DFA896EF828}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{F408F31B-A7B9-4506-BF4A-81D6412303C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F408F31B-A7B9-4506-BF4A-81D6412303C9}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTIVE" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="221">
   <si>
     <t>Parameter</t>
   </si>
@@ -1992,13 +1992,19 @@
   </si>
   <si>
     <t>Varieties frequency divided in three categories and Shannon-Weaver index (H').</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2046,6 +2052,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -2354,7 +2367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2659,11 +2672,26 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2743,23 +2771,212 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2776,15 +2993,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2794,6 +3002,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2812,184 +3029,154 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="48" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="50" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3330,29 +3517,29 @@
       <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="87" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="9" t="s">
         <v>130</v>
       </c>
@@ -3371,10 +3558,10 @@
       <c r="H3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="13">
@@ -3403,7 +3590,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="13">
         <v>21</v>
       </c>
@@ -3430,7 +3617,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="13">
         <v>28</v>
       </c>
@@ -3457,7 +3644,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="16">
         <v>35</v>
       </c>
@@ -3484,7 +3671,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="87" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="13">
@@ -3513,7 +3700,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="13">
         <v>21</v>
       </c>
@@ -3540,7 +3727,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="13">
         <v>28</v>
       </c>
@@ -3567,7 +3754,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="16">
         <v>35</v>
       </c>
@@ -3594,7 +3781,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="87" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="13">
@@ -3623,7 +3810,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="13">
         <v>21</v>
       </c>
@@ -3650,7 +3837,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="13">
         <v>28</v>
       </c>
@@ -3677,7 +3864,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="16">
         <v>35</v>
       </c>
@@ -3704,7 +3891,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="87" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="13">
@@ -3733,7 +3920,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="89"/>
       <c r="B17" s="13">
         <v>21</v>
       </c>
@@ -3760,7 +3947,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="13">
         <v>28</v>
       </c>
@@ -3787,7 +3974,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="16">
         <v>35</v>
       </c>
@@ -3814,7 +4001,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="87" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="13">
@@ -3843,7 +4030,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="13">
         <v>21</v>
       </c>
@@ -3870,7 +4057,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="89"/>
       <c r="B22" s="13">
         <v>28</v>
       </c>
@@ -3897,7 +4084,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="16">
         <v>35</v>
       </c>
@@ -3924,7 +4111,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="87" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="13">
@@ -3953,7 +4140,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="13">
         <v>21</v>
       </c>
@@ -3980,7 +4167,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="13">
         <v>28</v>
       </c>
@@ -4007,7 +4194,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="16">
         <v>35</v>
       </c>
@@ -4034,7 +4221,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="87" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="13">
@@ -4063,7 +4250,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="13">
         <v>21</v>
       </c>
@@ -4090,7 +4277,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="13">
         <v>28</v>
       </c>
@@ -4117,7 +4304,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="16">
         <v>35</v>
       </c>
@@ -4144,7 +4331,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="13">
@@ -4173,7 +4360,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="13">
         <v>21</v>
       </c>
@@ -4200,7 +4387,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="13">
         <v>28</v>
       </c>
@@ -4227,7 +4414,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="88"/>
       <c r="B35" s="16">
         <v>35</v>
       </c>
@@ -4254,7 +4441,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="87" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="13">
@@ -4283,7 +4470,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="13">
         <v>21</v>
       </c>
@@ -4310,7 +4497,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="13">
         <v>28</v>
       </c>
@@ -4337,7 +4524,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="88"/>
       <c r="B39" s="16">
         <v>35</v>
       </c>
@@ -4364,7 +4551,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="87" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13">
@@ -4393,7 +4580,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="13">
         <v>21</v>
       </c>
@@ -4420,7 +4607,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="13">
         <v>28</v>
       </c>
@@ -4447,7 +4634,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="88"/>
       <c r="B43" s="16">
         <v>35</v>
       </c>
@@ -4474,7 +4661,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="87" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="13">
@@ -4503,7 +4690,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="13">
         <v>21</v>
       </c>
@@ -4530,7 +4717,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="13">
         <v>28</v>
       </c>
@@ -4557,7 +4744,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
+      <c r="A47" s="88"/>
       <c r="B47" s="16">
         <v>35</v>
       </c>
@@ -4631,32 +4818,32 @@
       <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36" t="s">
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="99" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="19" t="s">
         <v>215</v>
       </c>
@@ -4666,7 +4853,7 @@
       <c r="E3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="43"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="19" t="s">
         <v>215</v>
       </c>
@@ -4676,10 +4863,10 @@
       <c r="I3" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="21">
@@ -4711,7 +4898,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="21">
         <v>21</v>
       </c>
@@ -4741,7 +4928,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="21">
         <v>28</v>
       </c>
@@ -4771,7 +4958,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="23">
         <v>35</v>
       </c>
@@ -4801,7 +4988,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="21">
@@ -4833,7 +5020,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="21">
         <v>21</v>
       </c>
@@ -4863,7 +5050,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="21">
         <v>28</v>
       </c>
@@ -4893,7 +5080,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="23">
         <v>35</v>
       </c>
@@ -4923,7 +5110,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="93" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="21">
@@ -4955,7 +5142,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="21">
         <v>21</v>
       </c>
@@ -4985,7 +5172,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="21">
         <v>28</v>
       </c>
@@ -5015,7 +5202,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="23">
         <v>35</v>
       </c>
@@ -5045,7 +5232,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="21">
@@ -5077,7 +5264,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="21">
         <v>21</v>
       </c>
@@ -5107,7 +5294,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="21">
         <v>28</v>
       </c>
@@ -5137,7 +5324,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="23">
         <v>35</v>
       </c>
@@ -5167,7 +5354,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="21">
@@ -5199,7 +5386,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="21">
         <v>21</v>
       </c>
@@ -5229,7 +5416,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="21">
         <v>28</v>
       </c>
@@ -5259,7 +5446,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
+      <c r="A23" s="95"/>
       <c r="B23" s="23">
         <v>35</v>
       </c>
@@ -5289,7 +5476,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="21">
@@ -5321,7 +5508,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="21">
         <v>21</v>
       </c>
@@ -5351,7 +5538,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="21">
         <v>28</v>
       </c>
@@ -5381,7 +5568,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="23">
         <v>35</v>
       </c>
@@ -5411,7 +5598,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="93" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="21">
@@ -5443,7 +5630,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="21">
         <v>21</v>
       </c>
@@ -5473,7 +5660,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="21">
         <v>28</v>
       </c>
@@ -5503,7 +5690,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="23">
         <v>35</v>
       </c>
@@ -5533,7 +5720,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="93" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="21">
@@ -5565,7 +5752,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="21">
         <v>21</v>
       </c>
@@ -5595,7 +5782,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="94"/>
       <c r="B34" s="21">
         <v>28</v>
       </c>
@@ -5625,7 +5812,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="23">
         <v>35</v>
       </c>
@@ -5655,7 +5842,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="21">
@@ -5687,7 +5874,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="21">
         <v>21</v>
       </c>
@@ -5717,7 +5904,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="21">
         <v>28</v>
       </c>
@@ -5747,7 +5934,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="95"/>
       <c r="B39" s="23">
         <v>35</v>
       </c>
@@ -5777,7 +5964,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="93" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="21">
@@ -5809,7 +5996,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="21">
         <v>21</v>
       </c>
@@ -5839,7 +6026,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="21">
         <v>28</v>
       </c>
@@ -5869,7 +6056,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="23">
         <v>35</v>
       </c>
@@ -5899,7 +6086,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="93" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="21">
@@ -5931,7 +6118,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="21">
         <v>21</v>
       </c>
@@ -5961,7 +6148,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="21">
         <v>28</v>
       </c>
@@ -5991,7 +6178,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="95"/>
       <c r="B47" s="23">
         <v>35</v>
       </c>
@@ -6022,11 +6209,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="A24:A27"/>
@@ -6039,6 +6221,11 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6046,9 +6233,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88FCE73-7DB3-4262-ABDA-4535339C57A2}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6064,101 +6253,170 @@
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+      <c r="O1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51">
+      <c r="R1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31">
         <v>14</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="36">
         <v>-0.02</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="36">
         <v>0.22</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="36">
         <v>0.18</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="36">
         <v>-0.17</v>
       </c>
-      <c r="I2" s="56">
+      <c r="I2" s="36">
         <v>-0.09</v>
       </c>
-      <c r="J2" s="56">
+      <c r="J2" s="36">
         <v>-0.12</v>
       </c>
-      <c r="K2" s="56">
+      <c r="K2" s="36">
         <v>-0.02</v>
       </c>
-      <c r="L2" s="56">
+      <c r="L2" s="36">
         <v>-0.05</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108"/>
+      <c r="O2" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+    </row>
+    <row r="3" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105"/>
       <c r="B3" s="3">
         <v>21</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="16">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="16">
@@ -6182,13 +6440,32 @@
       <c r="M3" s="16">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="T3" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+    </row>
+    <row r="4" spans="1:27" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="105"/>
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="16">
         <v>0.3</v>
       </c>
@@ -6219,13 +6496,28 @@
       <c r="M4" s="16">
         <v>-0.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="106"/>
       <c r="B5" s="3">
         <v>35</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
@@ -6241,33 +6533,56 @@
       <c r="H5" s="16">
         <v>-0.19</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="41" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="43" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
+      <c r="O5" s="88"/>
+      <c r="P5" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="X5" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA5" s="120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="31">
         <v>14</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="16">
         <v>0.06</v>
       </c>
@@ -6277,34 +6592,61 @@
       <c r="G6" s="16">
         <v>0.35</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="46" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="16">
         <v>0.35</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="39" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+      <c r="O6" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="R6" s="114"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="W6" s="29"/>
+      <c r="X6" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y6" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="123" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="105"/>
       <c r="B7" s="3">
         <v>21</v>
       </c>
       <c r="C7" s="16">
         <v>-0.4</v>
       </c>
-      <c r="D7" s="65"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="16">
         <v>0.06</v>
       </c>
@@ -6317,31 +6659,56 @@
       <c r="H7" s="16">
         <v>0.24</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="69" t="s">
+      <c r="K7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="50" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="X7" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y7" s="125" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z7" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA7" s="126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
       <c r="B8" s="3">
         <v>28</v>
       </c>
       <c r="C8" s="16">
         <v>0.2</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="16">
         <v>-0.31</v>
       </c>
@@ -6369,16 +6736,31 @@
       <c r="M8" s="16">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="109"/>
-      <c r="B9" s="52">
+      <c r="O8" s="89"/>
+      <c r="P8" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+    </row>
+    <row r="9" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="106"/>
+      <c r="B9" s="32">
         <v>35</v>
       </c>
       <c r="C9" s="16">
         <v>-0.09</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="16">
         <v>0.18</v>
       </c>
@@ -6394,24 +6776,47 @@
       <c r="I9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="73" t="s">
+      <c r="M9" s="53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107" t="s">
+      <c r="O9" s="88"/>
+      <c r="P9" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="114"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y9" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z9" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA9" s="129" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="31">
         <v>14</v>
       </c>
       <c r="C10" s="16">
@@ -6420,8 +6825,8 @@
       <c r="D10" s="16">
         <v>-0.25</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="74" t="s">
+      <c r="E10" s="45"/>
+      <c r="F10" s="54" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="16">
@@ -6445,9 +6850,28 @@
       <c r="M10" s="16">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
+      <c r="O10" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="105"/>
       <c r="B11" s="3">
         <v>21</v>
       </c>
@@ -6457,8 +6881,8 @@
       <c r="D11" s="16">
         <v>0.03</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="75" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="55" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="16">
@@ -6482,9 +6906,26 @@
       <c r="M11" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="114"/>
+      <c r="T11" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="105"/>
       <c r="B12" s="3">
         <v>28</v>
       </c>
@@ -6494,8 +6935,8 @@
       <c r="D12" s="16">
         <v>0.25</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="76" t="s">
+      <c r="E12" s="45"/>
+      <c r="F12" s="56" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="16">
@@ -6510,19 +6951,40 @@
       <c r="J12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="64" t="s">
+      <c r="L12" s="44" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="52">
+      <c r="O12" s="89"/>
+      <c r="P12" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="132" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z12" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA12" s="29"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="106"/>
+      <c r="B13" s="32">
         <v>35</v>
       </c>
       <c r="C13" s="16">
@@ -6531,8 +6993,8 @@
       <c r="D13" s="16">
         <v>-0.09</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="78" t="s">
+      <c r="E13" s="45"/>
+      <c r="F13" s="58" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="16">
@@ -6556,24 +7018,41 @@
       <c r="M13" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107" t="s">
+      <c r="O13" s="88"/>
+      <c r="P13" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+    </row>
+    <row r="14" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="31">
         <v>14</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="65"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="16" t="s">
         <v>46</v>
       </c>
@@ -6595,9 +7074,32 @@
       <c r="M14" s="16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
+      <c r="O14" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="R14" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="S14" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="114"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+    </row>
+    <row r="15" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="105"/>
       <c r="B15" s="3">
         <v>21</v>
       </c>
@@ -6607,10 +7109,10 @@
       <c r="D15" s="16">
         <v>-0.18</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="16">
         <v>0.35</v>
       </c>
@@ -6623,18 +7125,39 @@
       <c r="J15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="67" t="s">
+      <c r="K15" s="47" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M15" s="81" t="s">
+      <c r="M15" s="61" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="T15" s="114"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="137" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="105"/>
       <c r="B16" s="3">
         <v>28</v>
       </c>
@@ -6644,23 +7167,23 @@
       <c r="D16" s="16">
         <v>0.18</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="16">
         <v>-0.18</v>
       </c>
       <c r="H16" s="16">
         <v>-0.19</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="63" t="s">
         <v>51</v>
       </c>
       <c r="L16" s="16">
@@ -6669,13 +7192,36 @@
       <c r="M16" s="16">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="52">
+      <c r="O16" s="89"/>
+      <c r="P16" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="T16" s="114"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="X16" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y16" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+    </row>
+    <row r="17" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="106"/>
+      <c r="B17" s="32">
         <v>35</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="47" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="16">
@@ -6684,7 +7230,7 @@
       <c r="E17" s="16">
         <v>0.24</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="16">
         <v>-0.13</v>
       </c>
@@ -6697,7 +7243,7 @@
       <c r="J17" s="16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="57" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="16">
@@ -6706,12 +7252,31 @@
       <c r="M17" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
+      <c r="O17" s="88"/>
+      <c r="P17" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+    </row>
+    <row r="18" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="31">
         <v>14</v>
       </c>
       <c r="C18" s="16">
@@ -6726,8 +7291,8 @@
       <c r="F18" s="16">
         <v>-0.1</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="84" t="s">
+      <c r="G18" s="45"/>
+      <c r="H18" s="64" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="16">
@@ -6739,15 +7304,38 @@
       <c r="K18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M18" s="73" t="s">
+      <c r="M18" s="53" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="O18" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="140" t="s">
+        <v>219</v>
+      </c>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA18" s="129" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="105"/>
       <c r="B19" s="3">
         <v>21</v>
       </c>
@@ -6760,10 +7348,10 @@
       <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="16">
         <v>0.37</v>
       </c>
@@ -6779,19 +7367,38 @@
       <c r="L19" s="16">
         <v>0.37</v>
       </c>
-      <c r="M19" s="63" t="s">
+      <c r="M19" s="43" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="U19" s="114"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="120" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="105"/>
       <c r="B20" s="3">
         <v>28</v>
       </c>
       <c r="C20" s="16">
         <v>-0.02</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="59" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="16">
@@ -6800,8 +7407,8 @@
       <c r="F20" s="16">
         <v>0.16</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="77" t="s">
+      <c r="G20" s="45"/>
+      <c r="H20" s="57" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="16">
@@ -6819,10 +7426,29 @@
       <c r="M20" s="16">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="52">
+      <c r="O20" s="89"/>
+      <c r="P20" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+    </row>
+    <row r="21" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="106"/>
+      <c r="B21" s="32">
         <v>35</v>
       </c>
       <c r="C21" s="16">
@@ -6837,8 +7463,8 @@
       <c r="F21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="85" t="s">
+      <c r="G21" s="45"/>
+      <c r="H21" s="65" t="s">
         <v>56</v>
       </c>
       <c r="I21" s="16">
@@ -6856,12 +7482,29 @@
       <c r="M21" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107" t="s">
+      <c r="O21" s="88"/>
+      <c r="P21" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="114"/>
+      <c r="V21" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+    </row>
+    <row r="22" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="31">
         <v>14</v>
       </c>
       <c r="C22" s="16">
@@ -6876,28 +7519,53 @@
       <c r="F22" s="16">
         <v>0.27</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="65"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="40" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="16">
         <v>0.38</v>
       </c>
-      <c r="L22" s="79" t="s">
+      <c r="L22" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="67" t="s">
+      <c r="M22" s="47" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
+      <c r="O22" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="V22" s="114"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA22" s="123" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="105"/>
       <c r="B23" s="3">
         <v>21</v>
       </c>
@@ -6916,25 +7584,50 @@
       <c r="G23" s="16">
         <v>0.48</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66" t="s">
+      <c r="H23" s="45"/>
+      <c r="I23" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="73" t="s">
+      <c r="J23" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="58" t="s">
+      <c r="L23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="86" t="s">
+      <c r="M23" s="66" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="X23" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z23" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA23" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="105"/>
       <c r="B24" s="3">
         <v>28</v>
       </c>
@@ -6947,13 +7640,13 @@
       <c r="E24" s="16">
         <v>0.26</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="65"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="16">
         <v>-0.12</v>
       </c>
@@ -6969,10 +7662,29 @@
       <c r="M24" s="16">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="52">
+      <c r="O24" s="89"/>
+      <c r="P24" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="U24" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="V24" s="114"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+    </row>
+    <row r="25" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="106"/>
+      <c r="B25" s="32">
         <v>35</v>
       </c>
       <c r="C25" s="16">
@@ -6987,10 +7699,10 @@
       <c r="F25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="68" t="s">
+      <c r="G25" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="65"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="16">
         <v>0.2</v>
       </c>
@@ -7006,12 +7718,29 @@
       <c r="M25" s="16">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107" t="s">
+      <c r="O25" s="88"/>
+      <c r="P25" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="V25" s="114"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+    </row>
+    <row r="26" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="31">
         <v>14</v>
       </c>
       <c r="C26" s="16">
@@ -7032,8 +7761,8 @@
       <c r="H26" s="16">
         <v>0.18</v>
       </c>
-      <c r="I26" s="65"/>
-      <c r="J26" s="81" t="s">
+      <c r="I26" s="45"/>
+      <c r="J26" s="61" t="s">
         <v>49</v>
       </c>
       <c r="K26" s="16">
@@ -7045,9 +7774,28 @@
       <c r="M26" s="16">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
+      <c r="O26" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+    </row>
+    <row r="27" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="105"/>
       <c r="B27" s="3">
         <v>21</v>
       </c>
@@ -7069,29 +7817,52 @@
       <c r="H27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="87" t="s">
+      <c r="I27" s="45"/>
+      <c r="J27" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="83" t="s">
+      <c r="K27" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="88" t="s">
+      <c r="L27" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="65" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="114"/>
+      <c r="X27" s="143" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y27" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z27" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA27" s="141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="105"/>
       <c r="B28" s="3">
         <v>28</v>
       </c>
       <c r="C28" s="16">
         <v>0.13</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="46" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="16">
@@ -7100,17 +7871,17 @@
       <c r="F28" s="16">
         <v>0.36</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="83" t="s">
+      <c r="I28" s="45"/>
+      <c r="J28" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="68" t="s">
+      <c r="K28" s="48" t="s">
         <v>27</v>
       </c>
       <c r="L28" s="16">
@@ -7119,10 +7890,35 @@
       <c r="M28" s="16">
         <v>-0.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="52">
+      <c r="O28" s="89"/>
+      <c r="P28" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="122" t="s">
+        <v>219</v>
+      </c>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="V28" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="W28" s="114"/>
+      <c r="X28" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y28" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+    </row>
+    <row r="29" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="106"/>
+      <c r="B29" s="32">
         <v>35</v>
       </c>
       <c r="C29" s="16">
@@ -7143,25 +7939,48 @@
       <c r="H29" s="16">
         <v>0.11</v>
       </c>
-      <c r="I29" s="65"/>
-      <c r="J29" s="89" t="s">
+      <c r="I29" s="45"/>
+      <c r="J29" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="90" t="s">
+      <c r="L29" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="M29" s="91" t="s">
+      <c r="M29" s="71" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="107" t="s">
+      <c r="O29" s="88"/>
+      <c r="P29" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="114"/>
+      <c r="X29" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y29" s="129" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z29" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA29" s="147" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="31">
         <v>14</v>
       </c>
       <c r="C30" s="16">
@@ -7182,22 +8001,47 @@
       <c r="H30" s="16">
         <v>0.1</v>
       </c>
-      <c r="I30" s="92" t="s">
+      <c r="I30" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="65"/>
-      <c r="K30" s="87" t="s">
+      <c r="J30" s="45"/>
+      <c r="K30" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="93" t="s">
+      <c r="L30" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="87" t="s">
+      <c r="M30" s="67" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
+      <c r="O30" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="X30" s="114"/>
+      <c r="Y30" s="143" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z30" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA30" s="143" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="105"/>
       <c r="B31" s="3">
         <v>21</v>
       </c>
@@ -7219,22 +8063,45 @@
       <c r="H31" s="16">
         <v>0.4</v>
       </c>
-      <c r="I31" s="59" t="s">
+      <c r="I31" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="94" t="s">
+      <c r="J31" s="45"/>
+      <c r="K31" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="95" t="s">
+      <c r="L31" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="M31" s="96" t="s">
+      <c r="M31" s="76" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z31" s="151" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA31" s="152" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="105"/>
       <c r="B32" s="3">
         <v>28</v>
       </c>
@@ -7250,17 +8117,17 @@
       <c r="F32" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="81" t="s">
+      <c r="G32" s="61" t="s">
         <v>49</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="J32" s="65"/>
-      <c r="K32" s="97" t="s">
+      <c r="J32" s="45"/>
+      <c r="K32" s="77" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="16">
@@ -7269,49 +8136,99 @@
       <c r="M32" s="16">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
-      <c r="B33" s="52">
+      <c r="O32" s="89"/>
+      <c r="P32" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="V32" s="29"/>
+      <c r="W32" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+    </row>
+    <row r="33" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="106"/>
+      <c r="B33" s="32">
         <v>35</v>
       </c>
       <c r="C33" s="16">
         <v>0.39</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="57" t="s">
         <v>72</v>
       </c>
       <c r="E33" s="16">
         <v>0.04</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="52" t="s">
         <v>73</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="89" t="s">
+      <c r="I33" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="65"/>
-      <c r="K33" s="98" t="s">
+      <c r="J33" s="45"/>
+      <c r="K33" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="99" t="s">
+      <c r="L33" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="100" t="s">
+      <c r="M33" s="80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="107" t="s">
+      <c r="O33" s="88"/>
+      <c r="P33" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="S33" s="29"/>
+      <c r="T33" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="U33" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="V33" s="29"/>
+      <c r="W33" s="145" t="s">
+        <v>219</v>
+      </c>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="154" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z33" s="155" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA33" s="156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="31">
         <v>14</v>
       </c>
       <c r="C34" s="16">
@@ -7332,22 +8249,47 @@
       <c r="H34" s="16">
         <v>0.12</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="92" t="s">
+      <c r="J34" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="65"/>
-      <c r="L34" s="101" t="s">
+      <c r="K34" s="45"/>
+      <c r="L34" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="M34" s="102" t="s">
+      <c r="M34" s="82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+      <c r="O34" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="X34" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="157" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA34" s="158" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="105"/>
       <c r="B35" s="3">
         <v>21</v>
       </c>
@@ -7360,69 +8302,123 @@
       <c r="E35" s="16">
         <v>0.23</v>
       </c>
-      <c r="F35" s="77" t="s">
+      <c r="F35" s="57" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="16">
         <v>0.4</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I35" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="102" t="s">
+      <c r="J35" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="65"/>
-      <c r="L35" s="103" t="s">
+      <c r="K35" s="45"/>
+      <c r="L35" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="M35" s="104" t="s">
+      <c r="M35" s="84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="U35" s="29"/>
+      <c r="V35" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="W35" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="X35" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="159" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA35" s="160" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="105"/>
       <c r="B36" s="3">
         <v>28</v>
       </c>
       <c r="C36" s="16">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="43" t="s">
         <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="91" t="s">
+      <c r="G36" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="105" t="s">
+      <c r="I36" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="J36" s="98" t="s">
+      <c r="J36" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="65"/>
+      <c r="K36" s="45"/>
       <c r="L36" s="16">
         <v>-0.02</v>
       </c>
       <c r="M36" s="16">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="52">
+      <c r="O36" s="89"/>
+      <c r="P36" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="S36" s="29"/>
+      <c r="T36" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="U36" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="V36" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="W36" s="161" t="s">
+        <v>219</v>
+      </c>
+      <c r="X36" s="154" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+    </row>
+    <row r="37" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="106"/>
+      <c r="B37" s="32">
         <v>35</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -7434,34 +8430,63 @@
       <c r="E37" s="16">
         <v>0.25</v>
       </c>
-      <c r="F37" s="72" t="s">
+      <c r="F37" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="I37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J37" s="78" t="s">
+      <c r="J37" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="65"/>
-      <c r="L37" s="76" t="s">
+      <c r="K37" s="45"/>
+      <c r="L37" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="95" t="s">
+      <c r="M37" s="75" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="107" t="s">
+      <c r="O37" s="88"/>
+      <c r="P37" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="U37" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="V37" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="W37" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="X37" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="132" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA37" s="151" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="31">
         <v>14</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -7482,22 +8507,47 @@
       <c r="H38" s="16">
         <v>0.19</v>
       </c>
-      <c r="I38" s="58" t="s">
+      <c r="I38" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J38" s="92" t="s">
+      <c r="J38" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="K38" s="78" t="s">
+      <c r="K38" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="L38" s="65"/>
-      <c r="M38" s="78" t="s">
+      <c r="L38" s="45"/>
+      <c r="M38" s="58" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="108"/>
+      <c r="O38" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="X38" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y38" s="134" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z38" s="114"/>
+      <c r="AA38" s="134" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="105"/>
       <c r="B39" s="3">
         <v>21</v>
       </c>
@@ -7519,29 +8569,52 @@
       <c r="H39" s="16">
         <v>0.21</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J39" s="102" t="s">
+      <c r="J39" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="85" t="s">
+      <c r="K39" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="L39" s="65"/>
-      <c r="M39" s="96" t="s">
+      <c r="L39" s="45"/>
+      <c r="M39" s="76" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="108"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="X39" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y39" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z39" s="114"/>
+      <c r="AA39" s="152" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="105"/>
       <c r="B40" s="3">
         <v>28</v>
       </c>
       <c r="C40" s="16">
         <v>0.26</v>
       </c>
-      <c r="D40" s="106" t="s">
+      <c r="D40" s="86" t="s">
         <v>83</v>
       </c>
       <c r="E40" s="16" t="s">
@@ -7550,29 +8623,58 @@
       <c r="F40" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="77" t="s">
+      <c r="H40" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="82" t="s">
+      <c r="I40" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J40" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="98" t="s">
+      <c r="K40" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="L40" s="65"/>
-      <c r="M40" s="86" t="s">
+      <c r="L40" s="45"/>
+      <c r="M40" s="66" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="52">
+      <c r="O40" s="89"/>
+      <c r="P40" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="147" t="s">
+        <v>219</v>
+      </c>
+      <c r="V40" s="133" t="s">
+        <v>220</v>
+      </c>
+      <c r="W40" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="X40" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y40" s="154" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="142" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="106"/>
+      <c r="B41" s="32">
         <v>35</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -7587,31 +8689,58 @@
       <c r="F41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="68" t="s">
+      <c r="G41" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="61" t="s">
+      <c r="H41" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="101" t="s">
+      <c r="I41" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="J41" s="94" t="s">
+      <c r="J41" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="K41" s="74" t="s">
+      <c r="K41" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="65"/>
-      <c r="M41" s="100" t="s">
+      <c r="L41" s="45"/>
+      <c r="M41" s="80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107" t="s">
+      <c r="O41" s="88"/>
+      <c r="P41" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="V41" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="W41" s="157" t="s">
+        <v>219</v>
+      </c>
+      <c r="X41" s="150" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y41" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z41" s="114"/>
+      <c r="AA41" s="156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="31">
         <v>14</v>
       </c>
       <c r="C42" s="16">
@@ -7632,22 +8761,47 @@
       <c r="H42" s="16">
         <v>0</v>
       </c>
-      <c r="I42" s="71" t="s">
+      <c r="I42" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J42" s="72" t="s">
+      <c r="J42" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="76" t="s">
+      <c r="K42" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="L42" s="90" t="s">
+      <c r="L42" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="M42" s="65"/>
-    </row>
-    <row r="43" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
+      <c r="M42" s="45"/>
+      <c r="O42" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="13">
+        <v>14</v>
+      </c>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="X42" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y42" s="132" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z42" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA42" s="114"/>
+    </row>
+    <row r="43" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="105"/>
       <c r="B43" s="3">
         <v>21</v>
       </c>
@@ -7660,7 +8814,7 @@
       <c r="E43" s="16">
         <v>0.33</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="47" t="s">
         <v>25</v>
       </c>
       <c r="G43" s="16" t="s">
@@ -7669,29 +8823,54 @@
       <c r="H43" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="92" t="s">
+      <c r="J43" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="K43" s="102" t="s">
+      <c r="K43" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="97" t="s">
+      <c r="L43" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="M43" s="65"/>
-    </row>
-    <row r="44" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
+      <c r="M43" s="45"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="13">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="124" t="s">
+        <v>219</v>
+      </c>
+      <c r="X43" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y43" s="158" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z43" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA43" s="114"/>
+    </row>
+    <row r="44" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="105"/>
       <c r="B44" s="3">
         <v>28</v>
       </c>
       <c r="C44" s="16">
         <v>0.13</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="42" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="16">
@@ -7715,14 +8894,33 @@
       <c r="K44" s="16">
         <v>0.4</v>
       </c>
-      <c r="L44" s="69" t="s">
+      <c r="L44" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="M44" s="65"/>
-    </row>
-    <row r="45" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="109"/>
-      <c r="B45" s="52">
+      <c r="M44" s="45"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="13">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="125" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA44" s="114"/>
+    </row>
+    <row r="45" spans="1:27" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="106"/>
+      <c r="B45" s="32">
         <v>35</v>
       </c>
       <c r="C45" s="16">
@@ -7734,42 +8932,82 @@
       <c r="E45" s="16">
         <v>0.39</v>
       </c>
-      <c r="F45" s="61" t="s">
+      <c r="F45" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="63" t="s">
+      <c r="G45" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="62" t="s">
+      <c r="I45" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="86" t="s">
+      <c r="J45" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="K45" s="96" t="s">
+      <c r="K45" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="L45" s="86" t="s">
+      <c r="L45" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="M45" s="65"/>
+      <c r="M45" s="45"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="16">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="118" t="s">
+        <v>219</v>
+      </c>
+      <c r="U45" s="120" t="s">
+        <v>220</v>
+      </c>
+      <c r="V45" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="W45" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="X45" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y45" s="152" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z45" s="142" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA45" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="22">
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="O34:O37"/>
+    <mergeCell ref="O38:O41"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7780,28 +9018,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E228F90-0BFD-4AD5-85DB-814A572EBB50}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
